--- a/st-parranderos-jdo-est/data/Esquema BD.xlsx
+++ b/st-parranderos-jdo-est/data/Esquema BD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolás\Desktop\2020\Sistrans\iteraciones\st-parranderos-jdo-est\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D88D25-548D-4400-B7D5-4B58FC17D746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E759583-DB93-455A-9719-B5BF23374AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8EEF67A9-6324-49A2-AA74-E29D07B2AB68}"/>
   </bookViews>
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE441C97-7F2D-4289-AB1E-C697E71C467D}">
   <dimension ref="B2:CG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="BF1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="BT9" sqref="BT9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1800,6 +1800,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="CA2:CG2"/>
+    <mergeCell ref="BP7:BT7"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="AT7:AV7"/>
+    <mergeCell ref="BV7:BY7"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="I7:M7"/>
     <mergeCell ref="BI2:BN2"/>
@@ -1808,13 +1815,6 @@
     <mergeCell ref="AM2:AR2"/>
     <mergeCell ref="X7:AB7"/>
     <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="CA2:CG2"/>
-    <mergeCell ref="BP7:BT7"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="AT7:AV7"/>
-    <mergeCell ref="BV7:BY7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
